--- a/500all/speech_level/speeches_CHRG-114hhrg93082.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93082.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. Good afternoon. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order, and without objection, the Chair is authorized to declare a recess of the Committee at any time. And just to give you a little head's up, in about 15 or 20 minutes, that bell is going to ring, and we will have to go vote, and it should not be that long. I think we only have a couple of votes, and I apologize for the inconvenience.    We welcome everyone to today's hearing on the ``Furthering Asbestos Claim Transparency Act of 2015,'' known as the ``FACT Act.'' This morning, I am going to recognize myself for an opening statement, and then I am going to give my good friend, Mr. Hank Johnson, the opportunity for his opening statement.    This morning, the Subcommittee meets to examine H.R. 526, the ``Further Asbestos Claim Transparency Act of 2015,'' or the ``FACT Act.'' This legislation is aimed at preventing fraudulent activity within the asbestos bankruptcy trust system. Following the first successful tort lawsuit against an asbestos defendant in the 1970's, asbestos litigation dramatically increased to the point that the Supreme Court described the ongoing lawsuit as an, and I quote, ``asbestos litigation crisis.''    Under the backdrop of increasing asbestos claims and an expanding defendant population, courts and parties initiated several attempts to achieve a comprehensive resolution to asbestos litigation. Notwithstanding these efforts, no resolution has been reached. Likely due to the absence of a comprehensive resolution to the onslaught of asbestos litigation, companies closed their doors with great cost to the economy and their employees. Estimates of the cost of asbestos litigation and the ensuing bankruptcies ranged from between $1.4 and $3 billion, coupled with a loss of approximately 60,000 American jobs.    To allow some companies to emerge from bankruptcy and continue their business operations, Congress amended the Bankruptcy Code. The amendment includes a provision, Section 524(g), which forges what is a simple compromise. A company can receive a permanent injunction against all of its asbestos liability claims if it funds a trust in an amount sufficient to pay all present and future asbestos claims. A product of bankruptcies that use Section 524(g) is a negotiated resolution. A company can continue generating jobs and income for the economy with the certainty that it will no longer face asbestos liability. Asbestos claimants will have confidence in a dedicated pool of money that is reserved to compensate them for their injuries.    Over the past several years, however, the Committee has heard complaints regarding the asbestos bankruptcy trust system. These complaints have focused on the ability of plaintiffs' firms to exert considerable control over the formation and operation of the trust, the dramatic reduction in transparency from these asbestos trusts, and troubling reports of fraudulent activity occurring as a result. The fraudulent activity follows a similar pattern where plaintiffs' firms file claims against a bankruptcy asbestos trust claiming injury with one set of facts. The plaintiffs then file claims against defendants in State court based on different and sometimes conflicting sets of facts. This conduct is calculated to exploit the opaque nature of bankruptcy asbestos trust operations.    Furthermore, fraud of this variety drains the finite funds set aside in these asbestos bankruptcy trusts so that when future asbestos victims start to develop symptoms and look to the trusts for compensation, their recoveries may be diminished dramatically.    I support the Vice-Chairman of the Subcommittee, Mr. Farenthold, for introducing the FACT Act, and I am an original co-sponsor of this important legislation that will increase transparency in the asbestos bankruptcy trust system, and allow these trust funds to protect against fraudulent activity. Critics of this legislation have raised concerns that this bill imposes an undue burden on the asbestos trust. Critics also allege that it infringes on asbestos victims' privacy, and is not necessary because the critics allege fraud does not exist in the bankruptcy asbestos trust system. These concerns should be carefully evaluated.    Thankfully, we have an excellent panel of witnesses before us today who will help us build upon the Committee's extensive record in support of this measure, and address the concerns that have been raised by critics of the legislation. I look forward to their testimony.</t>
   </si>
   <si>
@@ -64,18 +61,12 @@
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman. And, Mr. Chairman, at this time, I know that the Ranking Member of the full Committee, Mr. Conyers, has some pressing business. And so I will yield to him insofar as his opening statement is concerned, and I would like the opportunity to make my own once he concludes.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you so much, Ranking Member Johnson. I appreciate your kindness. We are all under time constraints here. I mean, the Committee is full of them. But before I make my remarks about the subject, I just wanted to congratulate our colleague, Tom Marino, on his new role as Chairman----</t>
   </si>
   <si>
@@ -94,9 +85,6 @@
     <t>412482</t>
   </si>
   <si>
-    <t>Blake Farenthold</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Farenthold. Thank you very much, and I will be brief. This bill is designed to protect future victims of asbestos, or victims who have not yet discovered their injury. There are limited resources in these trusts. It is designed to prevent double dipping. It is designed to prevent fraud as a result of filing suits in multiple cases.    There is a long history of abuses within the asbestos litigation system, a lot of which were brought to light in the district that I represent in Corpus Christie where Judge Jan Jack discovered massive abuses. We are just trying to get the facts out. We are not asking anybody who is a victim who gets a claim from a trust to give any more information than they would give in pleadings in a typical lawsuit. All we are trying to do here is set up a system of transparency where we know if you have been injured and been compensated, it keeps unscrupulous plaintiffs' attorneys, and, in some cases, unscrupulous alleged victims from double dipping.    This is just simple get the facts out there so the lawyers and the courts all know what is going on. It is a simple, short, 2-page bill, 3 pages if you count the header. And all it asks for is a disclosure of information that would normally be available in pleadings. It is a quick, easy step to solve a problem and preserve limited resources in these trusts for as yet undiscovered victims. I will yield back.</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t xml:space="preserve">    Mr. Marino. Let the record reflect that all the witnesses responded in the affirmative. Thank you. Please be seated.    I would like to introduce from my left to right, first Mr. Inselbuch. Is that correct, sir? Okay. Mr. Inselbuch practices law at Caplin &amp; Drysdale New York offices. He has 30 years of experience practicing on behalf of asbestos plaintiffs' bar, and was first retained in that capacity in a landmark asbestos bankruptcy case of Johns Manville in 1985. He has represented the asbestos plaintiff's bar in a number of complex bankruptcies, including those of W.R. Grace, Babcock &amp; Wilcox, Pittsburgh Coining, and Armstrong World Industries.    Mr. Inselbuch earned his undergraduate degree from Princeton University, his law degree from Columbia University, and a masters of law degree from the New York University School of Law. Welcome, sir.    Mr. Vari is a partner at the Pittsburgh office of the law firm of K&amp;L Gates, where he specializes also in asbestos litigation. He has over 25 years of asbestos litigation experience in both trial and appellate courts in a number of States, including: California, New York, Illinois, Pennsylvania, Texas, Massachusetts, Michigan, and Ohio. Mr. Vari has been recognized repeatedly for the quality of his work, including being named one of the best lawyers in America and the Pennsylvania Super Lawyer.    Mr. Vari earned his undergraduate degree in finance from the University of Akron and his law degree, summa cum laude, from the University of Akron School of Law, where he was the managing editor of the Law Review. Welcome, sir.    Mr. Scarcelli--correct pronunciation?</t>
   </si>
   <si>
-    <t>Scarcella</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scarcella. Close enough.</t>
   </si>
   <si>
@@ -136,9 +121,6 @@
     <t xml:space="preserve">    Mr. Marino. Okay. Mr. Scarcella--I apologize--is an economist and principal with Bates White Consulting Firm. He has over 10 years of experience in economic consulting related to asbestos litigation, and has extensive knowledge of the Administration and operation of asbestos bankruptcy trusts. Additionally, Mr. Scarcella regularly provides his expertise to ongoing asbestos litigation suits, and has served as an expert witness in over 50 individual asbestos-related cases.    He earned his bachelor's degree in both economics and public affairs, as well as a master's degree in economics from American University. Again, welcome, sir.    Mr. Brickman is a former acting dean and professor of law at Benjamin N. Cardozo School of Law at Yeshiva University. He is a leading scholar and expert on asbestos litigation. Professor Brickman has published numerous articles, spoken on many panels, and testified frequently before governing bodies and courts on the issues related to asbestos litigation.    Professor Brickman earned his bachelor of science degree in chemistry from Carnegie Tech, his law degree from the University of Florida where he was a member of the Law Review and graduated Order of Coif, and a master's of law degree from Yale University where he was a Sterling Fellow.    Each of the witnesses' written statements will be entered into the record in its entirety. I ask that each of you witnesses summarize your testimony in 5 minutes or less. And to help you stay within the time, there is a timing light in front of you. Now, I do not know how good I am going to be about this because I am color blind, and I cannot see the last two. They look they are on or off all the time. The light will switch from green to yellow indicating that you have 1 minute to conclude your testimony. When the light turns red, it indicates that the witness' 5 minutes have expired. And what I will do is if we get to that red light, when someone nudges me, I will just politely do a little tap and give you a hint to please wrap up.    Okay. We are going to start with Mr. Inselbuch's testimony. Sir, please make sure the microphone is on and pulled up to you. Sir, I think you may have to push that button on that microphone in front of you. The light should come on.</t>
   </si>
   <si>
-    <t>Inselbuch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Inselbuch. Yes.</t>
   </si>
   <si>
@@ -151,9 +133,6 @@
     <t xml:space="preserve">    Mr. Marino. Thank you, sir.    Mr. Vari?</t>
   </si>
   <si>
-    <t>Vari</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vari. Mr. Chairman and Members of the Subcommittee, thank you very much for affording me the opportunity to appear before you today on the important issue of the FACT Act legislation. Just to re-introduce myself, my name is Nick Vari. I am an attorney with K&amp;L Gates in Pittsburgh, and for nearly 25 years I have represented asbestos defendants across the United States, and it is those experiences that shape my comments today. The reason I am here is that the asbestos claim recovery system is broken. There are billions of dollars that are being paid every year by entities that collectively do not have complete information regarding the claims that are being paid.    There are two competing remuneration systems or compensation systems that exist for asbestos claimants. One is a trust system, and that trust system was formed by now bankrupt entities that have put money into trusts to not only pay present claimants, but future claimants who do not even yet know that they have a claim. The other system is the civil justice, or what we refer to as the tort system, and that is where the solvent entities are, and the plaintiffs can seek recovery from the solvent entities.    The mechanisms in each instance are pretty similar. The claimant comes forward with information regarding exposure to a product or showing circumstances that a trust or entity is responsible for the claim. Then they also need to provide evidence of a compensable injury that is attributable to that asbestos exposure, and then the claim is reviewed. It can be contested, and ultimately it is disposed of and often paid.    The big difference between the two systems, though, is that the claim information for the tort system claimants is available to the public largely and takes place under the sunlight of the disclosure in the court systems. The trust system disposition or claims disposition occurs behind closed doors, and that information is not available to other stakeholders or folks who may need to know or could benefit from that information.    Now, it is the same people, the same claimants, that are seeking recovery in each system. And the proposed legislation that we are talking about today is not about who is a good guy and who is a bad guy, and putting white hats or black hats on people or entities. It is just about information, and it is about making sure that all of the stakeholders in this claims process have access to the same information regarding what claims are being made, and of whom, and what is being alleged in all of those claims.    I reference in my comments the Garlock opinion. It is a bankruptcy opinion out of the Western District of North Carolina. I am sure we will have some more discussion on that. But the teaching in that claim or in that decision was that the bankrupt entity, Garlock, was paying 10 times more in the tort system than the bankruptcy court felt that it should have paid had it had access to all of the information regarding other exposure claims that its claimants were making.    Now, while it is correct that I have personally not worked with the trusts, I can only presume, though, that each trust would benefit from the same information, and knowing what claims were made and what allegations of exposure were being made, and what diseases were being alleged by the various trust claimants. At this point, all these trusts exist in a vacuum. If that information was open, it would not only benefit defendants. It would benefit the trusts in evaluating the claims to it.    The arguments against transparency even from my perspective just do not seem to resonate. An asbestos claimant in the tort system makes full disclosures of his or her medical history and medical records. They provide Social Security printouts. They provide tax returns. They provide all sorts of wage information. There is no information that is submitted to the trust that is not made available within the civil justice system.    And the most important thing, from my perspective, is that nothing in this legislation relates to compensation or costs any claimant one cent in compensation. The effect of this information and what that may be is a function of state courts and the recovery systems that are available on a state-by-state basis. All the legislation provides for is information and enables all of the stakeholders in that litigation to have access to the same information.    Thank you very much, and I appreciate your time.</t>
   </si>
   <si>
@@ -166,9 +145,6 @@
     <t xml:space="preserve">    Mr. Marino. Thank you, sir.    Professor Brickman?</t>
   </si>
   <si>
-    <t>Brickman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brickman. Mr. Chairman, Members of the Subcommittee, I want to thank you for this opportunity to address the critical issues of how to check the fraudulent practices that permeate mesothelioma litigation today.    Approximately a year and a half ago, I testified in the Garlock bankruptcy as an expert witness for Garlock, that the settlements that Garlock had entered into in the period 2005 to 2010, which the lead plaintiff's expert had relied on for his calculation that Garlock should fork over $1.3 billion to the trust to cover its asbestos liabilities, was simply not a valid basis for these projections. The reason I gave was that these settlements were infected by plaintiffs' counsels' strategy of suppressing evidence of claimants' exposures to a group of large companies that were bankrupted in the years 2000 and 2001.    The presiding judge in Garlock, Judge Hodges, agreed, finding that, ``The estimate of Garlock's aggregate liability are infected with the impropriety of some firms.'' I think the attempts by Mr. Inselbuch that you heard today and others to marginalize Judge Hodge's finding would not rattle in a thimble.    Permit me to briefly explain how this illegal and unethical suppression of evidence is carried out. Plaintiffs' counsel, who have effective control over the creation and administration of bankruptcy trusts, have used that power to include, amend, or add provisions to trust distribution procedures, known in the trade as TDPs, designed to limit, if not preclude, defendants' ability to use discovery, to access information, evidence that a tort plaintiff has filed trust claims. In filing a trust claim, a claimant must demonstrate ``meaningful and credible exposure to the products of the company funding the trust.''    To facilitate fraud, asbestos trusts have modified or adopted TDPs to include provisions designed to allow claimants, who are also suing defendants in the tort system, to prevent tort defendants from accessing exposure information and other vital information submitted by the claimants as part of the trust claims. Now, I have more fully described these provisions in my written statement and in my scholarship.    Now, in the teeth of this overwhelming evidence that exists today that some plaintiffs' counsels' practices are designed to defraud defendants, plaintiffs' counsel continued to deny any fraudulent practice or practices in mesothelioma litigation. For example, we just heard Mr. Inselbuch, who has testified previously as he has testified today, that fraudulent actions to suppress the production of exposure evidence submitted with claim filings are essentially non-existent. And as for the massive fraud in the Canadian case, which I presume some of you are familiar with, he testified previously before this Subcommittee that it was ``an isolated incident remedied by a State court, involving inconsistent trust claims with respect to a single claimant, one of the millions who have filed claims with asbestos trusts.'' There has also been congressional testimony from plaintiffs' counsel, Charles Siegel, to the same effect. Now, because of time I will have to rely on my written statement that goes further into this.    Now, much of the evidence that was presented in the Garlock proceeding, including my expert report in particular, still remains under seal, though I understand that this will start to come out in about 2 weeks. Now, the Garlock evidence that Judge Hodges did disclose in his order as to the frequency of apparently perjurious denials of exposures, the products to which plaintiffs had asserted ``meaningful and credible exposure,'' coupled with plaintiffs' counsels' brazen manipulation of TDPs to facilitate such denials, lead, in my opinion, to an inexorable conclusion: the practice of deliberately failing to disclose evidence of other exposure is far closer to the norm than the exception. Indeed it is likely that cases in which fraud has been successfully employed dwarf the number of cases in which abuse has been discovered.    Now, improper trust payments no doubt have amounted to billions of dollars to this point. As for tort defendants, it is simply not possible to even begin to estimate how much money they have paid out as a consequence of plaintiffs making false statements as to product exposures. Undoubtedly, it amounts to hundreds of millions of dollars, but more likely billions. And it is improbable, to say the least, that the scheme to suppress evidence of other exposures is being hatched by plaintiffs.</t>
   </si>
   <si>
@@ -184,9 +160,6 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. And, Chairman, I have a policy that if my colleague from Texas is walking in, as you recognize me and he is supposed to go first, that I yield.</t>
   </si>
   <si>
@@ -430,9 +403,6 @@
     <t>412505</t>
   </si>
   <si>
-    <t>Suzan K. DelBene</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DelBene. An opportunity to----</t>
   </si>
   <si>
@@ -481,9 +451,6 @@
     <t>412635</t>
   </si>
   <si>
-    <t>Mike Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chairman, and I would like to take a moment to thank everybody that has come today. My heart goes to all of you for what you have been through, and I hope that this hearing is a reflection of the fact that inasmuch as it looks like there is some infighting here, that there is a true effort to try and make the system better and address some concerns. And I, for one, am grateful for you being here today. I am grateful for the panel to be here today to share their experience as well.    Mr. Vari, I have heard varying degrees of testimony today with regard to double dipping, and I am wondering if you might be able to--I have heard that it does not exist. I have heard that it does exist. I assume that it is somewhere in the middle, but if you could share with me your experience.</t>
   </si>
   <si>
@@ -517,9 +484,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chairman, and let me thank the witnesses for their presence here today, and certainly we thank all of the victims and their families for your presence here today. And certainly you have been subjected to something that no American should have to deal with in terms of the asbestos exposure, and now this fight to ensure that you are justly compensated.    Let me start with Mr. Scarcella. You are here today in support of the FACT Act, correct?</t>
   </si>
   <si>
@@ -613,9 +577,6 @@
     <t>412636</t>
   </si>
   <si>
-    <t>David A. Trott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Chairman. I want to thank all of the folks who came here to testify today, and I apologize I missed some of your testimony. I am new to Congress, and they schedule you to be in three places at once. I did not know that was part of the process.    But I practiced bankruptcy law for the better part of the 20 years, did mostly secured creditor work. Never really dealt with Section 524(g). Did not handle that kind of litigation. But when we had to file a proof of claim on behalf of a client, we took that process very seriously. We documented it. We attested to it. We attached documents. We knew that the claim would be scrutinized by the debtor's counsel, by the court, by the U.S. Attorney's Office potentially.    So this transparency seems to me to be quite logical, and the only thing that I heard earlier when the Ranking Member of the Subcommittee and the Ranking Member of the whole Committee were making their comments, they offered two reasons as to why this was a bad idea. And I would be interested to hear from the panel briefly, whoever cares to take the question, first that the disclosures required by the act would compromise the confidentiality of some of the folks that have suffered because of asbestos. And then also, that that information would be used potentially by employers against them. Do any of the folks here today have concern with respect to the use of that information given that there are some safeguards in the act?</t>
   </si>
   <si>
@@ -670,9 +631,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman. Thank you to our witnesses. I first want to begin by thanking the many victims of asbestos injury and illness who are here and have taken time out of their lives to be part of this hearing. Thank you for being present today, and I hope that we will act consistent with the experiences you have had, and do the right thing, and defeat this bill.    I want to say to you, Mr. Inselbuch, thank you for your testimony, and for its clarity, and for giving us a really important context. And I apologize to witnesses. I have been in and out. I am in the middle of another hearing, but wanted to come back for a couple of purposes.    First, I would ask, Mr. Chairman, unanimous consent that a letter from the Military Order of the Purple Heart be introduced as part of the record; a letter from the Asbestos Disease Awareness Organization Voice of the Victims be made a part of the record; correspondence from the American Federation of Labor, AFL-CIO; a letter from AFSCME, the American Federation of State County Municipal Employees; Public Citizen; the Environmental Working Group; a letter from asbestos patients and their families; and a letter from Douglas Campbell of Campbell &amp; Levine.</t>
   </si>
   <si>
@@ -731,9 +689,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. I have a couple of questions I would like to conclude. Okay. The Chairman of the full Judiciary Committee, Mr. Goodlatte, has some questions.</t>
-  </si>
-  <si>
-    <t>Goodlatte</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman. No, I am going to put my statement before the Committee. First of all, let me start by thanking you for holding this hearing on this very important legislation that will help those asbestos victims who must look to the bankruptcy process to seek redress for their or their loved ones' injuries. Unfortunately, on too frequent an occasion, by the time asbestos victims assert their claims for compensation, the bankruptcy trust formed for their benefit has been diluted by fraudulent claims, leaving these victims without their entitled recovery.    The reason that fraud is allowed to exist within the asbestos trust system is the excessive lack of transparency created by plaintiffs' firms. Due to a provision in the Bankruptcy Code, plaintiffs' firms are essentially granted a statutory veto right over a debtor's Chapter 11 plan that seeks to restructure asbestos liabilities. Plaintiffs' firms have exploited this leverage to prevent information contained within the asbestos trusts from seeing the light of day. The predictable result from this reduced transparency has been a growing wave of claims and reports of fraud.    The increase in claims has caused many asbestos trusts to reduce the recoveries paid to asbestos victims who emerge following the formation of the trust. In addition, instances of fraud within the asbestos trust system have been documented in news reports, State court cases, and prior testimony before the Judiciary Committee. Most recently, news reports have described numerous accounts of fraud that were uncovered during a bankruptcy case in North Carolina.    The FACT Act, introduced by Congressman Farenthold, would combat this fraud by introducing long-needed transparency into the asbestos bankruptcy trust system. The FACT Act increases transparency through two simple measures. First, it requires the asbestos trusts to file quarterly reports on their bankruptcy dockets. These reports will contain very basic information about demands to the trust and payments by the trusts to claimants. Second, the FACT Act requires asbestos trusts to respond to information requests about claims asserted against and payments made by the asbestos trusts.    These measures were carefully designed to increased transparency while providing claimants with sufficient privacy protection. To accomplish this goal, the bill leverages the privacy protections contained in the Bankruptcy Code, and includes additional safeguards to preserve claimants' privacy. The FACT Act also was deliberately structured to minimize the administrative impact on asbestos trusts.    I believe that the FACT Act strikes the appropriate balance between achieving the transparency necessary to reduce fraud in an efficient manner and providing claims with sufficient privacy protections. We cannot allow fraud to continue reducing recoveries for future asbestos victims.    I look forward to hearing testimony from today's panel, which has already taken place. And I thank the Chairman for yielding me the time.</t>
@@ -1303,11 +1258,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1329,11 +1282,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1353,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1379,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1407,11 +1354,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1431,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1457,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1485,11 +1426,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1509,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1537,11 +1474,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1561,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1589,11 +1522,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1615,11 +1546,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1641,11 +1570,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1665,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1693,11 +1618,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1717,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1745,11 +1666,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1769,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
         <v>33</v>
-      </c>
-      <c r="H20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1797,11 +1714,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1821,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1849,11 +1762,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1873,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1901,11 +1810,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1925,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1953,11 +1858,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1977,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2005,11 +1906,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2029,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2057,11 +1954,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2081,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2109,11 +2002,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2133,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2161,11 +2050,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2185,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2211,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2237,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2263,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2289,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2315,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2341,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2367,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2393,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2421,11 +2290,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2445,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2473,11 +2338,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2497,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2525,11 +2386,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2549,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2575,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2601,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2627,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2653,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2679,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2705,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2731,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2757,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2785,11 +2626,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2809,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2835,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2863,11 +2698,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2887,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2913,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2941,11 +2770,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2965,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2991,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3017,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3043,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3069,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3095,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3121,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3147,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3173,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3201,11 +3010,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3225,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>55</v>
-      </c>
-      <c r="G76" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3251,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>55</v>
-      </c>
-      <c r="G77" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3277,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>55</v>
-      </c>
-      <c r="G78" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3303,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3329,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>55</v>
-      </c>
-      <c r="G80" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3355,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3381,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>55</v>
-      </c>
-      <c r="G82" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3407,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3433,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>55</v>
-      </c>
-      <c r="G84" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3459,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3485,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>55</v>
-      </c>
-      <c r="G86" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3511,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3537,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>55</v>
-      </c>
-      <c r="G88" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3563,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3589,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>55</v>
-      </c>
-      <c r="G90" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3615,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3641,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>55</v>
-      </c>
-      <c r="G92" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3669,11 +3442,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3693,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3721,11 +3490,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3745,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3773,11 +3538,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3797,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3825,11 +3586,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3849,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3875,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>55</v>
-      </c>
-      <c r="G101" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3901,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3929,11 +3682,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3953,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>55</v>
-      </c>
-      <c r="G104" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3979,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4007,11 +3754,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4031,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4059,11 +3802,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4083,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4111,11 +3850,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4135,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4163,11 +3898,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4187,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>55</v>
-      </c>
-      <c r="G113" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4213,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>137</v>
-      </c>
-      <c r="G114" t="s">
-        <v>138</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4239,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4267,11 +3994,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4291,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4319,11 +4042,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4343,13 +4064,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>137</v>
-      </c>
-      <c r="G119" t="s">
-        <v>138</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4371,11 +4090,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4395,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>137</v>
-      </c>
-      <c r="G121" t="s">
-        <v>138</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4421,13 +4136,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4447,13 +4160,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>137</v>
-      </c>
-      <c r="G123" t="s">
+        <v>128</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
         <v>138</v>
-      </c>
-      <c r="H123" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4473,13 +4184,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4499,13 +4208,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>137</v>
-      </c>
-      <c r="G125" t="s">
-        <v>138</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4525,13 +4232,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4551,13 +4256,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>137</v>
-      </c>
-      <c r="G127" t="s">
-        <v>138</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4579,11 +4282,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4603,13 +4304,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>154</v>
-      </c>
-      <c r="G129" t="s">
-        <v>155</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4629,13 +4328,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4655,13 +4352,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>154</v>
-      </c>
-      <c r="G131" t="s">
-        <v>155</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4681,13 +4376,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4707,13 +4400,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>154</v>
-      </c>
-      <c r="G133" t="s">
-        <v>155</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4733,13 +4424,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4759,13 +4448,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>154</v>
-      </c>
-      <c r="G135" t="s">
-        <v>155</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4785,13 +4472,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4811,13 +4496,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>154</v>
-      </c>
-      <c r="G137" t="s">
-        <v>155</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4839,11 +4522,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4863,13 +4544,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>166</v>
-      </c>
-      <c r="G139" t="s">
-        <v>167</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4889,13 +4568,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4915,13 +4592,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>166</v>
-      </c>
-      <c r="G141" t="s">
-        <v>167</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4941,13 +4616,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4967,13 +4640,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>166</v>
-      </c>
-      <c r="G143" t="s">
-        <v>167</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4993,13 +4664,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5019,13 +4688,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>166</v>
-      </c>
-      <c r="G145" t="s">
-        <v>167</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5045,13 +4712,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5071,13 +4736,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>166</v>
-      </c>
-      <c r="G147" t="s">
-        <v>167</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5097,13 +4760,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5123,13 +4784,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>166</v>
-      </c>
-      <c r="G149" t="s">
-        <v>167</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5149,13 +4808,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5175,13 +4832,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>166</v>
-      </c>
-      <c r="G151" t="s">
+        <v>155</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
         <v>167</v>
-      </c>
-      <c r="H151" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5201,13 +4856,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5227,13 +4880,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>166</v>
-      </c>
-      <c r="G153" t="s">
-        <v>167</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5253,13 +4904,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5279,13 +4928,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>166</v>
-      </c>
-      <c r="G155" t="s">
-        <v>167</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5305,13 +4952,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5331,13 +4976,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>166</v>
-      </c>
-      <c r="G157" t="s">
-        <v>167</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5357,13 +5000,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5383,13 +5024,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>166</v>
-      </c>
-      <c r="G159" t="s">
-        <v>167</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5409,13 +5048,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5435,13 +5072,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>166</v>
-      </c>
-      <c r="G161" t="s">
-        <v>167</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5461,13 +5096,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5487,13 +5120,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>166</v>
-      </c>
-      <c r="G163" t="s">
-        <v>167</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5513,13 +5144,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5539,13 +5168,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>166</v>
-      </c>
-      <c r="G165" t="s">
-        <v>167</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5565,13 +5192,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5591,13 +5216,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>166</v>
-      </c>
-      <c r="G167" t="s">
-        <v>167</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5617,13 +5240,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5643,13 +5264,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>166</v>
-      </c>
-      <c r="G169" t="s">
-        <v>167</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5671,11 +5290,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5695,13 +5312,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>198</v>
-      </c>
-      <c r="G171" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5721,13 +5336,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5747,13 +5360,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>198</v>
-      </c>
-      <c r="G173" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5773,13 +5384,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5799,13 +5408,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>198</v>
-      </c>
-      <c r="G175" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5825,13 +5432,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5851,13 +5456,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>198</v>
-      </c>
-      <c r="G177" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5877,13 +5480,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5903,13 +5504,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>198</v>
-      </c>
-      <c r="G179" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5929,13 +5528,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
-      </c>
-      <c r="G180" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5955,13 +5552,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>198</v>
-      </c>
-      <c r="G181" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5981,13 +5576,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6007,13 +5600,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>198</v>
-      </c>
-      <c r="G183" t="s">
+        <v>186</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
         <v>199</v>
-      </c>
-      <c r="H183" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6033,13 +5624,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6061,11 +5650,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6085,13 +5672,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>198</v>
-      </c>
-      <c r="G186" t="s">
-        <v>199</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6113,11 +5698,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6137,13 +5720,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>217</v>
-      </c>
-      <c r="G188" t="s">
-        <v>218</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6165,11 +5746,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6189,13 +5768,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>217</v>
-      </c>
-      <c r="G190" t="s">
-        <v>218</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6215,13 +5792,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6241,13 +5816,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>217</v>
-      </c>
-      <c r="G192" t="s">
-        <v>218</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6267,13 +5840,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6293,13 +5864,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>217</v>
-      </c>
-      <c r="G194" t="s">
-        <v>218</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6319,13 +5888,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6345,13 +5912,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>217</v>
-      </c>
-      <c r="G196" t="s">
-        <v>218</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6373,11 +5938,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6397,13 +5960,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>15</v>
-      </c>
-      <c r="G198" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6423,13 +5984,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6449,13 +6008,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>15</v>
-      </c>
-      <c r="G200" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6475,13 +6032,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>18</v>
-      </c>
-      <c r="G201" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6501,13 +6056,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>15</v>
-      </c>
-      <c r="G202" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6527,13 +6080,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6553,13 +6104,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>15</v>
-      </c>
-      <c r="G204" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6579,13 +6128,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6605,13 +6152,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>15</v>
-      </c>
-      <c r="G206" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6633,11 +6178,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6657,13 +6200,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
-      </c>
-      <c r="G208" t="s">
-        <v>239</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6685,11 +6226,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6709,13 +6248,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>18</v>
-      </c>
-      <c r="G210" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6737,11 +6274,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6761,13 +6296,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>18</v>
-      </c>
-      <c r="G212" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6789,11 +6322,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6813,13 +6344,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6841,11 +6370,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6865,13 +6392,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>18</v>
-      </c>
-      <c r="G216" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6893,11 +6418,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6917,13 +6440,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>18</v>
-      </c>
-      <c r="G218" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6945,11 +6466,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6969,13 +6488,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>18</v>
-      </c>
-      <c r="G220" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6997,11 +6514,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7021,13 +6536,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>18</v>
-      </c>
-      <c r="G222" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7049,11 +6562,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>12</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7073,13 +6584,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>18</v>
-      </c>
-      <c r="G224" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7101,11 +6610,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7125,13 +6632,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>18</v>
-      </c>
-      <c r="G226" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7153,11 +6658,9 @@
       <c r="F227" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="s">
-        <v>12</v>
-      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7177,13 +6680,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>18</v>
-      </c>
-      <c r="G228" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7205,11 +6706,9 @@
       <c r="F229" t="s">
         <v>11</v>
       </c>
-      <c r="G229" t="s">
-        <v>12</v>
-      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7229,13 +6728,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>18</v>
-      </c>
-      <c r="G230" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7257,11 +6754,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7281,13 +6776,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>18</v>
-      </c>
-      <c r="G232" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7309,11 +6802,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7333,13 +6824,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>18</v>
-      </c>
-      <c r="G234" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7361,11 +6850,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7385,13 +6872,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>18</v>
-      </c>
-      <c r="G236" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7413,11 +6898,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7437,13 +6920,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>18</v>
-      </c>
-      <c r="G238" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7465,11 +6946,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7489,13 +6968,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>18</v>
-      </c>
-      <c r="G240" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7517,11 +6994,9 @@
       <c r="F241" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
-        <v>12</v>
-      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7541,13 +7016,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>18</v>
-      </c>
-      <c r="G242" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7569,11 +7042,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7593,13 +7064,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7621,11 +7090,9 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7645,13 +7112,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>18</v>
-      </c>
-      <c r="G246" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7673,11 +7138,9 @@
       <c r="F247" t="s">
         <v>11</v>
       </c>
-      <c r="G247" t="s">
-        <v>12</v>
-      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7697,13 +7160,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>18</v>
-      </c>
-      <c r="G248" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7725,11 +7186,9 @@
       <c r="F249" t="s">
         <v>11</v>
       </c>
-      <c r="G249" t="s">
-        <v>12</v>
-      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7749,13 +7208,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>18</v>
-      </c>
-      <c r="G250" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7777,11 +7234,9 @@
       <c r="F251" t="s">
         <v>11</v>
       </c>
-      <c r="G251" t="s">
-        <v>12</v>
-      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7801,13 +7256,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>18</v>
-      </c>
-      <c r="G252" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7829,11 +7282,9 @@
       <c r="F253" t="s">
         <v>11</v>
       </c>
-      <c r="G253" t="s">
-        <v>12</v>
-      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7853,13 +7304,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>18</v>
-      </c>
-      <c r="G254" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7881,11 +7330,9 @@
       <c r="F255" t="s">
         <v>11</v>
       </c>
-      <c r="G255" t="s">
-        <v>12</v>
-      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7905,13 +7352,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>18</v>
-      </c>
-      <c r="G256" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7933,11 +7378,9 @@
       <c r="F257" t="s">
         <v>11</v>
       </c>
-      <c r="G257" t="s">
-        <v>12</v>
-      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7957,13 +7400,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>18</v>
-      </c>
-      <c r="G258" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7985,11 +7426,9 @@
       <c r="F259" t="s">
         <v>11</v>
       </c>
-      <c r="G259" t="s">
-        <v>12</v>
-      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8009,13 +7448,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>15</v>
-      </c>
-      <c r="G260" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8037,11 +7474,9 @@
       <c r="F261" t="s">
         <v>11</v>
       </c>
-      <c r="G261" t="s">
-        <v>12</v>
-      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8061,13 +7496,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>15</v>
-      </c>
-      <c r="G262" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8089,11 +7522,9 @@
       <c r="F263" t="s">
         <v>11</v>
       </c>
-      <c r="G263" t="s">
-        <v>12</v>
-      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8113,13 +7544,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>18</v>
-      </c>
-      <c r="G264" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8141,11 +7570,9 @@
       <c r="F265" t="s">
         <v>11</v>
       </c>
-      <c r="G265" t="s">
-        <v>12</v>
-      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
